--- a/biology/Botanique/Grand_bouteiller_de_France/Grand_bouteiller_de_France.xlsx
+++ b/biology/Botanique/Grand_bouteiller_de_France/Grand_bouteiller_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand bouteiller de France était l'un des grands officiers de la couronne de France pendant l’Ancien Régime.
 Le grand bouteiller était l'héritier du bouteiller du Moyen Âge. Dans le royaume de France sous la dynastie capétienne, le bouteiller perd sa fonction de gestion des approvisionnements de la cour, rôle désormais dévolu à des échansons. Il est désormais chargé d'administrer le vignoble du domaine royal, fonction pour laquelle il perçoit une redevance sur certaines abbayes fondées par le roi.
@@ -515,9 +527,11 @@
           <t>Liste des bouteillers puis des grands bouteillers de France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hervé de Montmorency : exerçait cette charge en 1075[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hervé de Montmorency : exerçait cette charge en 1075
 Payen d'Orléans : 1106
 Gilbert de Garlande dit le Jeune : 1114-1126
 Louis de Senlis : avant 1128.
@@ -526,9 +540,9 @@
 Guy IV de Senlis : 1223.
 Robert Ier de Courtenay-Champignelles : 1223
 Étienne de Sancerre : avant 1248.
-Jean II de Brienne (en) ou Jean d'Acre : exerçait cette charge en 1258[2]. Époux en 1251/1252 de Marie de Coucy, veuve du roi Alexandre II d'Écosse.
+Jean II de Brienne (en) ou Jean d'Acre : exerçait cette charge en 1258. Époux en 1251/1252 de Marie de Coucy, veuve du roi Alexandre II d'Écosse.
 Guy de Chatillon : 25 mai 1296.
-Henri de Sully : avril 1317 - 1336[3].
+Henri de Sully : avril 1317 - 1336.
 Miles X de Noyers : 1336 - après 1346.
 Jean de Chalon : avant 1350-1361.
 Jean de Sarrebruche : vers 1370.
